--- a/src/playground/parliamentsim/results.xlsx
+++ b/src/playground/parliamentsim/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27840" windowHeight="14625"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="27840" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="optimal-vs-simulation" sheetId="1" r:id="rId1"/>
@@ -549,17 +549,7 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10551618547681539"/>
-          <c:y val="3.75116652085156E-2"/>
-          <c:w val="0.70196937882764654"/>
-          <c:h val="0.89719889180519097"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -571,10 +561,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'optimal-vs-simulation'!$D$1:$D$10</c:f>
+              <c:f>'optimal-vs-simulation'!$D$1:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>298</c:v>
                 </c:pt>
@@ -604,6 +594,36 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,10 +638,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'optimal-vs-simulation'!$E$1:$E$10</c:f>
+              <c:f>'optimal-vs-simulation'!$E$1:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>-4</c:v>
                 </c:pt>
@@ -650,6 +670,36 @@
                   <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>191</c:v>
                 </c:pt>
               </c:numCache>
@@ -667,11 +717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138070656"/>
-        <c:axId val="149827968"/>
+        <c:axId val="129110400"/>
+        <c:axId val="129111936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138070656"/>
+        <c:axId val="129110400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149827968"/>
+        <c:crossAx val="129111936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -688,7 +738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149827968"/>
+        <c:axId val="129111936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138070656"/>
+        <c:crossAx val="129110400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -725,20 +775,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1043,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D1" sqref="D1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1221,6 +1271,176 @@
         <v>191</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <v>35.6030730306991</v>
+      </c>
+      <c r="D11">
+        <v>299</v>
+      </c>
+      <c r="E11">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>35.628737470252403</v>
+      </c>
+      <c r="D12">
+        <v>290</v>
+      </c>
+      <c r="E12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.6</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>35.497861301623701</v>
+      </c>
+      <c r="D13">
+        <v>297</v>
+      </c>
+      <c r="E13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.65</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>35.483881826348799</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.7</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
+      </c>
+      <c r="C15">
+        <v>35.506216569303398</v>
+      </c>
+      <c r="D15">
+        <v>290</v>
+      </c>
+      <c r="E15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.75</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>35.510526430120102</v>
+      </c>
+      <c r="D16">
+        <v>291</v>
+      </c>
+      <c r="E16">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.8</v>
+      </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="C17">
+        <v>35.425596042813403</v>
+      </c>
+      <c r="D17">
+        <v>289</v>
+      </c>
+      <c r="E17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.85</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18">
+        <v>35.542311431257403</v>
+      </c>
+      <c r="D18">
+        <v>295</v>
+      </c>
+      <c r="E18">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.9</v>
+      </c>
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="C19">
+        <v>35.4065417228596</v>
+      </c>
+      <c r="D19">
+        <v>297</v>
+      </c>
+      <c r="E19">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.95</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
+      <c r="C20">
+        <v>35.419121278941901</v>
+      </c>
+      <c r="D20">
+        <v>298</v>
+      </c>
+      <c r="E20">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
